--- a/data/caseData.xlsx
+++ b/data/caseData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BBE1C7-C80A-4C9B-923A-4CD6856CC4B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3929F-40DC-488F-A11C-0A6CB266E273}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="2205" windowWidth="24720" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="3525" windowWidth="26055" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenic" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,22 @@
   </si>
   <si>
     <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【景区列表】正常请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【景区列表】请求参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【景区列表】请求参数为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,22 +542,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAD59EF-31DD-4653-B7B0-75663DFFF666}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="41.125" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
+    <col min="3" max="3" width="71.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -563,8 +580,11 @@
       <c r="G1" t="s">
         <v>36</v>
       </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -586,8 +606,11 @@
       <c r="G2" t="s">
         <v>38</v>
       </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -609,8 +632,11 @@
       <c r="G3" t="s">
         <v>38</v>
       </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -631,6 +657,9 @@
       </c>
       <c r="G4" t="s">
         <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/caseData.xlsx
+++ b/data/caseData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3929F-40DC-488F-A11C-0A6CB266E273}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61217C26-0995-494F-94CD-9350804FC847}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="3525" windowWidth="26055" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
